--- a/data/ClientDetails.xlsx
+++ b/data/ClientDetails.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghad.alghulayqah\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raghad.alghulayqah\Downloads\SIMAH-app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D76F68AE-6D6E-46A5-B340-88C2661359C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F81C5C-A5A2-40C5-B007-C868B6BD7FDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{89D878DB-3071-488F-BA49-58119682063E}"/>
   </bookViews>
@@ -3211,8 +3211,8 @@
   <dimension ref="A1:O392"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K69" sqref="K69"/>
+      <pane ySplit="1" topLeftCell="A358" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O342" sqref="O342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17933,7 +17933,7 @@
         <v>1142</v>
       </c>
       <c r="O342" t="s">
-        <v>856</v>
+        <v>887</v>
       </c>
     </row>
     <row r="343" spans="1:15" x14ac:dyDescent="0.3">
